--- a/MQL4/客户资料2.xlsx
+++ b/MQL4/客户资料2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
   <si>
     <t>客户名</t>
   </si>
@@ -366,6 +366,15 @@
   </si>
   <si>
     <t>zheng123456A</t>
+  </si>
+  <si>
+    <t>Lxs123456!</t>
+  </si>
+  <si>
+    <t>xmglobal-real251</t>
+  </si>
+  <si>
+    <t>2023 06 20</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" workbookViewId="0">
-      <selection activeCell="N66" sqref="N66"/>
+    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2493,6 +2502,23 @@
         <v>108</v>
       </c>
     </row>
+    <row r="72" spans="8:13">
+      <c r="H72">
+        <v>251057849</v>
+      </c>
+      <c r="I72" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+      <c r="L72" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/MQL4/客户资料2.xlsx
+++ b/MQL4/客户资料2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="124">
   <si>
     <t>客户名</t>
   </si>
@@ -375,6 +375,36 @@
   </si>
   <si>
     <t>2023 06 20</t>
+  </si>
+  <si>
+    <t>Sunbo888</t>
+  </si>
+  <si>
+    <t>cptmarkets-live02</t>
+  </si>
+  <si>
+    <t>2023 06 22</t>
+  </si>
+  <si>
+    <t>vV2vzE5U</t>
+  </si>
+  <si>
+    <t>cptmarkets-live01</t>
+  </si>
+  <si>
+    <t>2023 06 28</t>
+  </si>
+  <si>
+    <t>2023 06 29</t>
+  </si>
+  <si>
+    <t>qi123456A</t>
+  </si>
+  <si>
+    <t>520316zxr</t>
+  </si>
+  <si>
+    <t>dooprime-live3</t>
   </si>
 </sst>
 </file>
@@ -1331,10 +1361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81:M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2519,6 +2549,176 @@
         <v>113</v>
       </c>
     </row>
+    <row r="73" spans="8:13">
+      <c r="H73">
+        <v>3318984</v>
+      </c>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+      <c r="J73" t="s">
+        <v>115</v>
+      </c>
+      <c r="L73" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="8:13">
+      <c r="H74">
+        <v>1439655</v>
+      </c>
+      <c r="I74" t="s">
+        <v>117</v>
+      </c>
+      <c r="J74" t="s">
+        <v>118</v>
+      </c>
+      <c r="L74" t="s">
+        <v>12</v>
+      </c>
+      <c r="M74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="8:13">
+      <c r="H75">
+        <v>1100111460</v>
+      </c>
+      <c r="I75" t="s">
+        <v>96</v>
+      </c>
+      <c r="J75" t="s">
+        <v>103</v>
+      </c>
+      <c r="L75" t="s">
+        <v>93</v>
+      </c>
+      <c r="M75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="8:13">
+      <c r="H76">
+        <v>1100106335</v>
+      </c>
+      <c r="I76" t="s">
+        <v>96</v>
+      </c>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+      <c r="L76" t="s">
+        <v>93</v>
+      </c>
+      <c r="M76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="8:13">
+      <c r="H77">
+        <v>1100110743</v>
+      </c>
+      <c r="I77" t="s">
+        <v>121</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+      <c r="L77" t="s">
+        <v>93</v>
+      </c>
+      <c r="M77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="8:13">
+      <c r="H78">
+        <v>1100111497</v>
+      </c>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+      <c r="L78" t="s">
+        <v>93</v>
+      </c>
+      <c r="M78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="8:13">
+      <c r="H79">
+        <v>1100106837</v>
+      </c>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+      <c r="J79" t="s">
+        <v>103</v>
+      </c>
+      <c r="L79" t="s">
+        <v>93</v>
+      </c>
+      <c r="M79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="8:13">
+      <c r="H80">
+        <v>1100106831</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+      <c r="J80" t="s">
+        <v>103</v>
+      </c>
+      <c r="L80" t="s">
+        <v>93</v>
+      </c>
+      <c r="M80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="8:13">
+      <c r="H81">
+        <v>1100111635</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+      <c r="J81" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81" t="s">
+        <v>93</v>
+      </c>
+      <c r="M81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13">
+      <c r="H82">
+        <v>2128578</v>
+      </c>
+      <c r="I82" t="s">
+        <v>122</v>
+      </c>
+      <c r="J82" t="s">
+        <v>123</v>
+      </c>
+      <c r="L82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M82" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/MQL4/客户资料2.xlsx
+++ b/MQL4/客户资料2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="131">
   <si>
     <t>客户名</t>
   </si>
@@ -335,10 +335,13 @@
     <t>2023 05 22</t>
   </si>
   <si>
+    <t>10137708（251059653）</t>
+  </si>
+  <si>
     <t>Lgm666888#</t>
   </si>
   <si>
-    <t>XMglobal-real15</t>
+    <t>XMglobal-real15（XMGlobal-Real 251）</t>
   </si>
   <si>
     <t>2023 05 23</t>
@@ -405,6 +408,24 @@
   </si>
   <si>
     <t>dooprime-live3</t>
+  </si>
+  <si>
+    <t>zuD32vM9</t>
+  </si>
+  <si>
+    <t>2023 07 03</t>
+  </si>
+  <si>
+    <t>Hb332741349</t>
+  </si>
+  <si>
+    <t>Exness-Real8</t>
+  </si>
+  <si>
+    <t>hz2QW8nz</t>
+  </si>
+  <si>
+    <t>2023 07 10</t>
   </si>
 </sst>
 </file>
@@ -583,7 +604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,10 +922,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,16 +934,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,10 +955,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -952,28 +979,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -982,19 +1009,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1006,42 +1030,46 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1361,10 +1389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81:M82"/>
+    <sheetView tabSelected="1" topLeftCell="F82" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2260,21 +2288,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="8:13">
-      <c r="H56">
-        <v>10137708</v>
-      </c>
-      <c r="I56" t="s">
+    <row r="56" s="3" customFormat="1" spans="8:13">
+      <c r="H56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J56" t="s">
+      <c r="I56" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="J56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M56" t="s">
-        <v>102</v>
+      <c r="M56" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="8:13">
@@ -2285,13 +2313,13 @@
         <v>96</v>
       </c>
       <c r="J57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s">
         <v>93</v>
       </c>
       <c r="M57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="8:13">
@@ -2302,13 +2330,13 @@
         <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s">
         <v>93</v>
       </c>
       <c r="M58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="8:13">
@@ -2325,7 +2353,7 @@
         <v>93</v>
       </c>
       <c r="M59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="8:13">
@@ -2336,13 +2364,13 @@
         <v>91</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s">
         <v>93</v>
       </c>
       <c r="M60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="8:13">
@@ -2350,16 +2378,16 @@
         <v>1100100718</v>
       </c>
       <c r="I61" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s">
         <v>93</v>
       </c>
       <c r="M61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="8:13">
@@ -2367,7 +2395,7 @@
         <v>70056456</v>
       </c>
       <c r="I62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J62" t="s">
         <v>95</v>
@@ -2376,7 +2404,7 @@
         <v>12</v>
       </c>
       <c r="M62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="8:13">
@@ -2384,16 +2412,16 @@
         <v>1100103527</v>
       </c>
       <c r="I63" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L63" t="s">
         <v>12</v>
       </c>
       <c r="M63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="8:13">
@@ -2401,16 +2429,16 @@
         <v>1100103525</v>
       </c>
       <c r="I64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s">
         <v>12</v>
       </c>
       <c r="M64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="8:13">
@@ -2418,16 +2446,16 @@
         <v>1100100688</v>
       </c>
       <c r="I65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s">
         <v>12</v>
       </c>
       <c r="M65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="8:13">
@@ -2435,16 +2463,16 @@
         <v>1100104549</v>
       </c>
       <c r="I66" t="s">
+        <v>110</v>
+      </c>
+      <c r="J66" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" t="s">
         <v>109</v>
-      </c>
-      <c r="J66" t="s">
-        <v>103</v>
-      </c>
-      <c r="L66" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="67" spans="8:13">
@@ -2455,13 +2483,13 @@
         <v>96</v>
       </c>
       <c r="J67" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s">
         <v>12</v>
       </c>
       <c r="M67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="8:13">
@@ -2472,13 +2500,13 @@
         <v>96</v>
       </c>
       <c r="J68" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s">
         <v>12</v>
       </c>
       <c r="M68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="8:13">
@@ -2486,16 +2514,16 @@
         <v>1100107311</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s">
         <v>12</v>
       </c>
       <c r="M69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="8:13">
@@ -2503,16 +2531,16 @@
         <v>1100107312</v>
       </c>
       <c r="I70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s">
         <v>12</v>
       </c>
       <c r="M70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="8:13">
@@ -2520,33 +2548,33 @@
         <v>1100107314</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s">
         <v>12</v>
       </c>
       <c r="M71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="8:13">
-      <c r="H72">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="8:13">
+      <c r="H72" s="1">
         <v>251057849</v>
       </c>
-      <c r="I72" t="s">
-        <v>111</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="I72" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L72" t="s">
-        <v>12</v>
-      </c>
-      <c r="M72" t="s">
+      <c r="J72" s="1" t="s">
         <v>113</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="8:13">
@@ -2554,16 +2582,16 @@
         <v>3318984</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L73" t="s">
         <v>12</v>
       </c>
       <c r="M73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74" spans="8:13">
@@ -2571,16 +2599,16 @@
         <v>1439655</v>
       </c>
       <c r="I74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L74" t="s">
         <v>12</v>
       </c>
       <c r="M74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="8:13">
@@ -2591,13 +2619,13 @@
         <v>96</v>
       </c>
       <c r="J75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L75" t="s">
         <v>93</v>
       </c>
       <c r="M75" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="8:13">
@@ -2608,13 +2636,13 @@
         <v>96</v>
       </c>
       <c r="J76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L76" t="s">
         <v>93</v>
       </c>
       <c r="M76" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="8:13">
@@ -2622,16 +2650,16 @@
         <v>1100110743</v>
       </c>
       <c r="I77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J77" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L77" t="s">
         <v>93</v>
       </c>
       <c r="M77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="8:13">
@@ -2639,16 +2667,16 @@
         <v>1100111497</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s">
         <v>93</v>
       </c>
       <c r="M78" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="8:13">
@@ -2656,16 +2684,16 @@
         <v>1100106837</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J79" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s">
         <v>93</v>
       </c>
       <c r="M79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="8:13">
@@ -2673,16 +2701,16 @@
         <v>1100106831</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J80" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s">
         <v>93</v>
       </c>
       <c r="M80" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="8:13">
@@ -2690,16 +2718,16 @@
         <v>1100111635</v>
       </c>
       <c r="I81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L81" t="s">
         <v>93</v>
       </c>
       <c r="M81" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="8:13">
@@ -2707,16 +2735,67 @@
         <v>2128578</v>
       </c>
       <c r="I82" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L82" t="s">
         <v>12</v>
       </c>
       <c r="M82" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13">
+      <c r="H83">
+        <v>1439696</v>
+      </c>
+      <c r="I83" t="s">
+        <v>125</v>
+      </c>
+      <c r="J83" t="s">
+        <v>119</v>
+      </c>
+      <c r="L83" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="8:13">
+      <c r="H84">
+        <v>27169878</v>
+      </c>
+      <c r="I84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J84" t="s">
+        <v>128</v>
+      </c>
+      <c r="L84" t="s">
+        <v>40</v>
+      </c>
+      <c r="M84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13">
+      <c r="H85">
+        <v>3379934</v>
+      </c>
+      <c r="I85" t="s">
+        <v>129</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+      <c r="L85" t="s">
+        <v>12</v>
+      </c>
+      <c r="M85" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/MQL4/客户资料2.xlsx
+++ b/MQL4/客户资料2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15915" windowHeight="7860"/>
+    <workbookView windowWidth="15735" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="135">
   <si>
     <t>客户名</t>
   </si>
@@ -308,18 +308,21 @@
     <t>2022.12.05</t>
   </si>
   <si>
+    <t xml:space="preserve"> dy000819A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ICMarketsSC-Live06</t>
+  </si>
+  <si>
+    <t>47.109.101.133</t>
+  </si>
+  <si>
+    <t>2023 04 26</t>
+  </si>
+  <si>
     <t xml:space="preserve"> dy000819</t>
   </si>
   <si>
-    <t xml:space="preserve"> ICMarketsSC-Live06</t>
-  </si>
-  <si>
-    <t>47.109.101.133</t>
-  </si>
-  <si>
-    <t>2023 04 26</t>
-  </si>
-  <si>
     <t>ICMarketsSC-Live06</t>
   </si>
   <si>
@@ -426,12 +429,21 @@
   </si>
   <si>
     <t>2023 07 10</t>
+  </si>
+  <si>
+    <t>Abc321456?</t>
+  </si>
+  <si>
+    <t>2023 07 13</t>
+  </si>
+  <si>
+    <t>v9dRMx2G</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -460,34 +472,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -501,14 +485,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -548,6 +524,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,7 +589,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,49 +637,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,121 +775,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,21 +828,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -863,6 +860,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -919,148 +931,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,52 +1085,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1389,10 +1401,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F82" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+      <selection activeCell="M87" sqref="M87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2225,10 +2237,10 @@
         <v>70058611</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L52" t="s">
         <v>93</v>
@@ -2242,10 +2254,10 @@
         <v>70056882</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L53" t="s">
         <v>93</v>
@@ -2259,10 +2271,10 @@
         <v>70062624</v>
       </c>
       <c r="I54" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" t="s">
         <v>96</v>
-      </c>
-      <c r="J54" t="s">
-        <v>95</v>
       </c>
       <c r="L54" t="s">
         <v>93</v>
@@ -2276,33 +2288,33 @@
         <v>120002373</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1" spans="8:13">
       <c r="H56" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="8:13">
@@ -2310,16 +2322,16 @@
         <v>1100097252</v>
       </c>
       <c r="I57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s">
         <v>93</v>
       </c>
       <c r="M57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="8:13">
@@ -2327,16 +2339,16 @@
         <v>1100098015</v>
       </c>
       <c r="I58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L58" t="s">
         <v>93</v>
       </c>
       <c r="M58" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="8:13">
@@ -2344,7 +2356,7 @@
         <v>70066475</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J59" t="s">
         <v>92</v>
@@ -2353,7 +2365,7 @@
         <v>93</v>
       </c>
       <c r="M59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="8:13">
@@ -2361,16 +2373,16 @@
         <v>1100098003</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J60" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s">
         <v>93</v>
       </c>
       <c r="M60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="8:13">
@@ -2378,16 +2390,16 @@
         <v>1100100718</v>
       </c>
       <c r="I61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L61" t="s">
         <v>93</v>
       </c>
       <c r="M61" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="8:13">
@@ -2395,16 +2407,16 @@
         <v>70056456</v>
       </c>
       <c r="I62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L62" t="s">
         <v>12</v>
       </c>
       <c r="M62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="8:13">
@@ -2412,16 +2424,16 @@
         <v>1100103527</v>
       </c>
       <c r="I63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L63" t="s">
         <v>12</v>
       </c>
       <c r="M63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="8:13">
@@ -2429,16 +2441,16 @@
         <v>1100103525</v>
       </c>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s">
         <v>12</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="8:13">
@@ -2446,16 +2458,16 @@
         <v>1100100688</v>
       </c>
       <c r="I65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s">
         <v>12</v>
       </c>
       <c r="M65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="8:13">
@@ -2463,16 +2475,16 @@
         <v>1100104549</v>
       </c>
       <c r="I66" t="s">
+        <v>111</v>
+      </c>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+      <c r="L66" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" t="s">
         <v>110</v>
-      </c>
-      <c r="J66" t="s">
-        <v>104</v>
-      </c>
-      <c r="L66" t="s">
-        <v>12</v>
-      </c>
-      <c r="M66" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="67" spans="8:13">
@@ -2480,16 +2492,16 @@
         <v>1100103529</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L67" t="s">
         <v>12</v>
       </c>
       <c r="M67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="8:13">
@@ -2497,16 +2509,16 @@
         <v>1100203531</v>
       </c>
       <c r="I68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s">
         <v>12</v>
       </c>
       <c r="M68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="8:13">
@@ -2514,16 +2526,16 @@
         <v>1100107311</v>
       </c>
       <c r="I69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L69" t="s">
         <v>12</v>
       </c>
       <c r="M69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="8:13">
@@ -2531,16 +2543,16 @@
         <v>1100107312</v>
       </c>
       <c r="I70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L70" t="s">
         <v>12</v>
       </c>
       <c r="M70" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="8:13">
@@ -2548,16 +2560,16 @@
         <v>1100107314</v>
       </c>
       <c r="I71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L71" t="s">
         <v>12</v>
       </c>
       <c r="M71" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="8:13">
@@ -2565,16 +2577,16 @@
         <v>251057849</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="8:13">
@@ -2582,16 +2594,16 @@
         <v>3318984</v>
       </c>
       <c r="I73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L73" t="s">
         <v>12</v>
       </c>
       <c r="M73" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="8:13">
@@ -2599,16 +2611,16 @@
         <v>1439655</v>
       </c>
       <c r="I74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L74" t="s">
         <v>12</v>
       </c>
       <c r="M74" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="8:13">
@@ -2616,16 +2628,16 @@
         <v>1100111460</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J75" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L75" t="s">
         <v>93</v>
       </c>
       <c r="M75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="8:13">
@@ -2633,16 +2645,16 @@
         <v>1100106335</v>
       </c>
       <c r="I76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L76" t="s">
         <v>93</v>
       </c>
       <c r="M76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="8:13">
@@ -2650,16 +2662,16 @@
         <v>1100110743</v>
       </c>
       <c r="I77" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s">
         <v>93</v>
       </c>
       <c r="M77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="8:13">
@@ -2667,16 +2679,16 @@
         <v>1100111497</v>
       </c>
       <c r="I78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s">
         <v>93</v>
       </c>
       <c r="M78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="8:13">
@@ -2684,16 +2696,16 @@
         <v>1100106837</v>
       </c>
       <c r="I79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L79" t="s">
         <v>93</v>
       </c>
       <c r="M79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="8:13">
@@ -2701,16 +2713,16 @@
         <v>1100106831</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J80" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L80" t="s">
         <v>93</v>
       </c>
       <c r="M80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="8:13">
@@ -2718,16 +2730,16 @@
         <v>1100111635</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J81" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L81" t="s">
         <v>93</v>
       </c>
       <c r="M81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="8:13">
@@ -2735,16 +2747,16 @@
         <v>2128578</v>
       </c>
       <c r="I82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L82" t="s">
         <v>12</v>
       </c>
       <c r="M82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="8:13">
@@ -2752,16 +2764,16 @@
         <v>1439696</v>
       </c>
       <c r="I83" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L83" t="s">
         <v>12</v>
       </c>
       <c r="M83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="8:13">
@@ -2769,16 +2781,16 @@
         <v>27169878</v>
       </c>
       <c r="I84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L84" t="s">
         <v>40</v>
       </c>
       <c r="M84" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="8:13">
@@ -2786,16 +2798,50 @@
         <v>3379934</v>
       </c>
       <c r="I85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L85" t="s">
         <v>12</v>
       </c>
       <c r="M85" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13">
+      <c r="H86">
+        <v>251062926</v>
+      </c>
+      <c r="I86" t="s">
+        <v>132</v>
+      </c>
+      <c r="J86" t="s">
+        <v>114</v>
+      </c>
+      <c r="L86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="8:13">
+      <c r="H87">
+        <v>1439916</v>
+      </c>
+      <c r="I87" t="s">
+        <v>134</v>
+      </c>
+      <c r="J87" t="s">
+        <v>120</v>
+      </c>
+      <c r="L87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/MQL4/客户资料2.xlsx
+++ b/MQL4/客户资料2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="139">
   <si>
     <t>客户名</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>v9dRMx2G</t>
+  </si>
+  <si>
+    <t>Qxm821515</t>
+  </si>
+  <si>
+    <t>tmgm.trdemax-live9</t>
+  </si>
+  <si>
+    <t>2023 07 18</t>
+  </si>
+  <si>
+    <t>ICMarketsSC-Live09</t>
   </si>
 </sst>
 </file>
@@ -1401,10 +1413,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F82" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="F69" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2844,6 +2856,74 @@
         <v>133</v>
       </c>
     </row>
+    <row r="88" spans="8:13">
+      <c r="H88">
+        <v>9134489</v>
+      </c>
+      <c r="I88" t="s">
+        <v>135</v>
+      </c>
+      <c r="J88" t="s">
+        <v>136</v>
+      </c>
+      <c r="L88" t="s">
+        <v>12</v>
+      </c>
+      <c r="M88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="8:13">
+      <c r="H89">
+        <v>1100111636</v>
+      </c>
+      <c r="I89" t="s">
+        <v>107</v>
+      </c>
+      <c r="J89" t="s">
+        <v>105</v>
+      </c>
+      <c r="L89" t="s">
+        <v>93</v>
+      </c>
+      <c r="M89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13">
+      <c r="H90">
+        <v>20029674</v>
+      </c>
+      <c r="I90" t="s">
+        <v>107</v>
+      </c>
+      <c r="J90" t="s">
+        <v>138</v>
+      </c>
+      <c r="L90" t="s">
+        <v>93</v>
+      </c>
+      <c r="M90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13">
+      <c r="H91">
+        <v>20028769</v>
+      </c>
+      <c r="I91" t="s">
+        <v>97</v>
+      </c>
+      <c r="J91" t="s">
+        <v>138</v>
+      </c>
+      <c r="L91" t="s">
+        <v>93</v>
+      </c>
+      <c r="M91" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/MQL4/客户资料2.xlsx
+++ b/MQL4/客户资料2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="154">
   <si>
     <t>客户名</t>
   </si>
@@ -450,6 +450,51 @@
   </si>
   <si>
     <t>ICMarketsSC-Live09</t>
+  </si>
+  <si>
+    <t>e8UtR3ta</t>
+  </si>
+  <si>
+    <t>8.137.98.151</t>
+  </si>
+  <si>
+    <t>2023 07 19</t>
+  </si>
+  <si>
+    <t>uW4xM6S</t>
+  </si>
+  <si>
+    <t>kxX58Ptm</t>
+  </si>
+  <si>
+    <t>tK7jN8tx</t>
+  </si>
+  <si>
+    <t>uw3K3uYi</t>
+  </si>
+  <si>
+    <t>2023 07 21</t>
+  </si>
+  <si>
+    <t>p5Tgj9ZH</t>
+  </si>
+  <si>
+    <t>enX27ChS</t>
+  </si>
+  <si>
+    <t>jC2cNi29</t>
+  </si>
+  <si>
+    <t>r9nZZ4sB</t>
+  </si>
+  <si>
+    <t>2023 07 24</t>
+  </si>
+  <si>
+    <t>v2pY6mGM</t>
+  </si>
+  <si>
+    <t>vC3zn2D9</t>
   </si>
 </sst>
 </file>
@@ -628,7 +673,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,12 +683,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +1003,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,16 +1027,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1006,85 +1045,85 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,8 +1131,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,10 +1452,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F69" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView tabSelected="1" topLeftCell="F85" workbookViewId="0">
+      <selection activeCell="O97" sqref="O97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2601,20 +2640,20 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="8:13">
-      <c r="H73">
+    <row r="73" s="3" customFormat="1" spans="8:13">
+      <c r="H73" s="3">
         <v>3318984</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="L73" t="s">
-        <v>12</v>
-      </c>
-      <c r="M73" t="s">
+      <c r="L73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2788,20 +2827,20 @@
         <v>127</v>
       </c>
     </row>
-    <row r="84" spans="8:13">
-      <c r="H84">
+    <row r="84" s="3" customFormat="1" ht="13" customHeight="1" spans="8:13">
+      <c r="H84" s="3">
         <v>27169878</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L84" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2822,20 +2861,20 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="8:13">
-      <c r="H86">
+    <row r="86" s="3" customFormat="1" spans="8:13">
+      <c r="H86" s="3">
         <v>251062926</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2922,6 +2961,193 @@
       </c>
       <c r="M91" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="8:13">
+      <c r="H92">
+        <v>3393456</v>
+      </c>
+      <c r="I92" t="s">
+        <v>139</v>
+      </c>
+      <c r="J92" t="s">
+        <v>117</v>
+      </c>
+      <c r="L92" t="s">
+        <v>140</v>
+      </c>
+      <c r="M92" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="8:13">
+      <c r="H93">
+        <v>3393466</v>
+      </c>
+      <c r="I93" t="s">
+        <v>142</v>
+      </c>
+      <c r="J93" t="s">
+        <v>117</v>
+      </c>
+      <c r="L93" t="s">
+        <v>140</v>
+      </c>
+      <c r="M93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13">
+      <c r="H94">
+        <v>3393458</v>
+      </c>
+      <c r="I94" t="s">
+        <v>143</v>
+      </c>
+      <c r="J94" t="s">
+        <v>117</v>
+      </c>
+      <c r="L94" t="s">
+        <v>140</v>
+      </c>
+      <c r="M94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13">
+      <c r="H95">
+        <v>3393452</v>
+      </c>
+      <c r="I95" t="s">
+        <v>144</v>
+      </c>
+      <c r="J95" t="s">
+        <v>117</v>
+      </c>
+      <c r="L95" t="s">
+        <v>140</v>
+      </c>
+      <c r="M95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13">
+      <c r="H96">
+        <v>3393461</v>
+      </c>
+      <c r="I96" t="s">
+        <v>145</v>
+      </c>
+      <c r="J96" t="s">
+        <v>117</v>
+      </c>
+      <c r="L96" t="s">
+        <v>140</v>
+      </c>
+      <c r="M96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13">
+      <c r="H97">
+        <v>3393462</v>
+      </c>
+      <c r="I97" t="s">
+        <v>147</v>
+      </c>
+      <c r="J97" t="s">
+        <v>117</v>
+      </c>
+      <c r="L97" t="s">
+        <v>140</v>
+      </c>
+      <c r="M97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13">
+      <c r="H98">
+        <v>3393454</v>
+      </c>
+      <c r="I98" t="s">
+        <v>148</v>
+      </c>
+      <c r="J98" t="s">
+        <v>117</v>
+      </c>
+      <c r="L98" t="s">
+        <v>140</v>
+      </c>
+      <c r="M98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13">
+      <c r="H99">
+        <v>1440395</v>
+      </c>
+      <c r="I99" t="s">
+        <v>149</v>
+      </c>
+      <c r="J99" t="s">
+        <v>117</v>
+      </c>
+      <c r="L99" t="s">
+        <v>140</v>
+      </c>
+      <c r="M99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="8:13">
+      <c r="H100">
+        <v>3393453</v>
+      </c>
+      <c r="I100" t="s">
+        <v>150</v>
+      </c>
+      <c r="J100" t="s">
+        <v>117</v>
+      </c>
+      <c r="L100" t="s">
+        <v>140</v>
+      </c>
+      <c r="M100" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13">
+      <c r="H101">
+        <v>3393463</v>
+      </c>
+      <c r="I101" t="s">
+        <v>152</v>
+      </c>
+      <c r="J101" t="s">
+        <v>117</v>
+      </c>
+      <c r="L101" t="s">
+        <v>140</v>
+      </c>
+      <c r="M101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13">
+      <c r="H102">
+        <v>3393464</v>
+      </c>
+      <c r="I102" t="s">
+        <v>153</v>
+      </c>
+      <c r="J102" t="s">
+        <v>117</v>
+      </c>
+      <c r="L102" t="s">
+        <v>140</v>
+      </c>
+      <c r="M102" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
